--- a/results/AuswertungAntworten.xlsx
+++ b/results/AuswertungAntworten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LLama3\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880936B6-A2BD-4979-8D50-F1B3D11C4C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC521A1-CA46-4465-AC1A-709D5BD660B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{B090398C-7F10-4CAE-B0D2-63A7DFF9F4FF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B090398C-7F10-4CAE-B0D2-63A7DFF9F4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -370,6 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -705,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91EE376-70D4-4BCF-808B-285159EBAD03}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +827,7 @@
       </c>
       <c r="E9" s="6">
         <f>SUM('Antworten mit Bezug zur Frage'!D2:D11)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -852,15 +853,15 @@
         <v>26</v>
       </c>
       <c r="C13" s="11">
-        <f>C7/$C$5</f>
+        <f t="shared" ref="C13:E16" si="0">C7/$C$5</f>
         <v>0.1</v>
       </c>
       <c r="D13" s="11">
-        <f>D7/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="12">
-        <f>E7/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -869,15 +870,15 @@
         <v>27</v>
       </c>
       <c r="C14" s="10">
-        <f>C8/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="D14" s="10">
-        <f>D8/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="E14" s="13">
-        <f>E8/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.18333333333333332</v>
       </c>
     </row>
@@ -886,16 +887,16 @@
         <v>28</v>
       </c>
       <c r="C15" s="10">
-        <f>C9/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D15" s="10">
-        <f>D9/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.18333333333333332</v>
       </c>
       <c r="E15" s="13">
-        <f>E9/$C$5</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="0"/>
+        <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -906,17 +907,20 @@
         <v>29</v>
       </c>
       <c r="C16" s="14">
-        <f>C10/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="D16" s="14">
-        <f>D10/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="E16" s="15">
-        <f>E10/$C$5</f>
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -925,10 +929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC506F36-D4DD-4C1A-B84E-4929C1C891A2}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,6 +1114,20 @@
       </c>
       <c r="E11" s="9"/>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1117,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36B2F86-82B0-4089-9679-42683C48C5A7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,6 +1300,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1289,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8547ABA-5F75-45BD-847A-9210384A59D3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,6 +1484,20 @@
       </c>
       <c r="D11" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1461,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35B945C-3C7E-446F-83D5-826ACEEE48F4}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,6 +1672,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>SUM(B2:B11)</f>
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D2:D11)</f>
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
